--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.025.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.025.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.93949774652029</v>
+        <v>87.84660766961652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7625023501614729</v>
+        <v>0.3778832685433978</v>
       </c>
       <c r="D2" t="n">
-        <v>0.659394977465203</v>
+        <v>0.8784660766961652</v>
       </c>
       <c r="E2" t="n">
-        <v>0.645868796260503</v>
+        <v>0.8635971586828874</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.54017768319795</v>
+        <v>94.57227138643069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9634290705124536</v>
+        <v>0.1786631330056631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5454017768319794</v>
+        <v>0.9457227138643068</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5082341232050149</v>
+        <v>0.9450436747993676</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.64421837559148</v>
+        <v>88.28908554572271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8706766178210577</v>
+        <v>0.4525777338640182</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6164421837559149</v>
+        <v>0.8828908554572271</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6094384019429732</v>
+        <v>0.8668509001827033</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.511198193756</v>
+        <v>92.47787610619469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8040874235332012</v>
+        <v>0.2188601716797469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.64511198193756</v>
+        <v>0.9247787610619469</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6365502767534218</v>
+        <v>0.9231794675590603</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.89623612661008</v>
+        <v>95.07374631268436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9568926453590393</v>
+        <v>0.1517541687149787</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5489623612661009</v>
+        <v>0.9507374631268437</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5308547657208605</v>
+        <v>0.9486844644788501</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.25940535817784</v>
+        <v>88.93805309734515</v>
       </c>
       <c r="C7" t="n">
-        <v>1.350315880775452</v>
+        <v>0.4460860410697933</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4725940535817784</v>
+        <v>0.8893805309734514</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4472705001669007</v>
+        <v>0.8704878053370596</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.66503170442651</v>
+        <v>91.15044247787611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5703201106827085</v>
+        <v>0.2152542734258532</v>
       </c>
       <c r="D8" t="n">
-        <v>0.776650317044265</v>
+        <v>0.911504424778761</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7684902637124109</v>
+        <v>0.9055826736284593</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.25740707099541</v>
+        <v>95.57522123893804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6194637337233871</v>
+        <v>0.1051269579611054</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7625740707099542</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7548855467676046</v>
+        <v>0.9544886923596753</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.92012906686044</v>
+        <v>98.25958702064898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5858965111585955</v>
+        <v>0.04887583786328852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7692012906686043</v>
+        <v>0.9825958702064896</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7706554776011796</v>
+        <v>0.9825267430593595</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.73353575722973</v>
+        <v>96.63716814159292</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7264952356616655</v>
+        <v>0.08541195929634947</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6673353575722973</v>
+        <v>0.9663716814159292</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6672177839114554</v>
+        <v>0.9659900188194872</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.54322269223783</v>
+        <v>91.74041297935104</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7395620455344518</v>
+        <v>0.2198636647507859</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6654322269223782</v>
+        <v>0.9174041297935103</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6617057490954827</v>
+        <v>0.9169641373875008</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.32802186870128</v>
+        <v>92.94985250737463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7752215638756752</v>
+        <v>0.2162204668401197</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6932802186870128</v>
+        <v>0.9294985250737463</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6872741763097802</v>
+        <v>0.9232870459059699</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.94303583941038</v>
+        <v>92.21238938053098</v>
       </c>
       <c r="C14" t="n">
-        <v>1.057899292185903</v>
+        <v>0.2067064931356678</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6494303583941037</v>
+        <v>0.9221238938053098</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6237135283638886</v>
+        <v>0.9186056376245244</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55.81328558205521</v>
+        <v>92.00589970501474</v>
       </c>
       <c r="C15" t="n">
-        <v>1.034752491613229</v>
+        <v>0.2104974528735814</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5581328558205521</v>
+        <v>0.9200589970501476</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5458367735761329</v>
+        <v>0.9191797815618215</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.19227674979887</v>
+        <v>94.60228894713622</v>
       </c>
       <c r="C16" t="n">
-        <v>1.119091176489989</v>
+        <v>0.1384963673558862</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5719227674979888</v>
+        <v>0.9460228894713623</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5593934872151178</v>
+        <v>0.9449578678374115</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.36762428740732</v>
+        <v>96.57817109144543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7890993677079677</v>
+        <v>0.08503841557661265</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6736762428740733</v>
+        <v>0.9657817109144544</v>
       </c>
       <c r="E17" t="n">
-        <v>0.662328601049639</v>
+        <v>0.9653561224555069</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.32630905111635</v>
+        <v>94.04129793510324</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8536132668455443</v>
+        <v>0.2406916865619363</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6132630905111636</v>
+        <v>0.9404129793510325</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6041789330498384</v>
+        <v>0.9346205155957878</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.52276403775119</v>
+        <v>96.4306784660767</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6492293372750282</v>
+        <v>0.1254491112504184</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7152276403775119</v>
+        <v>0.9643067846607669</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7096760181604302</v>
+        <v>0.9623400181406201</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.15309821019213</v>
+        <v>95.69321533923303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8669589422643185</v>
+        <v>0.1034659468355433</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6815309821019213</v>
+        <v>0.9569321533923304</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6621413665467208</v>
+        <v>0.9557215528442133</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.01602955042864</v>
+        <v>85.60506578776634</v>
       </c>
       <c r="C21" t="n">
-        <v>1.186829037778079</v>
+        <v>0.2845151884879064</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6301602955042863</v>
+        <v>0.8560506578776632</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5997075304014048</v>
+        <v>0.8481450017369939</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.25273575030926</v>
+        <v>94.45462330989022</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7055604562163353</v>
+        <v>0.1293776408866203</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7625273575030926</v>
+        <v>0.9445462330989022</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7430287793455984</v>
+        <v>0.9440077342861517</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58.89540566959922</v>
+        <v>93.86430678466077</v>
       </c>
       <c r="C23" t="n">
-        <v>1.000764774779479</v>
+        <v>0.1557304200425279</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5889540566959922</v>
+        <v>0.9386430678466077</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5743269129989323</v>
+        <v>0.9393831568490583</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.3745101601225</v>
+        <v>93.59899307087431</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8862702908615271</v>
+        <v>0.1693979871766411</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6337451016012249</v>
+        <v>0.9359899307087431</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6276213292481978</v>
+        <v>0.9343373704250245</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.52231420687031</v>
+        <v>95.07374631268436</v>
       </c>
       <c r="C25" t="n">
-        <v>1.286537191023429</v>
+        <v>0.1508536776913388</v>
       </c>
       <c r="D25" t="n">
-        <v>0.495223142068703</v>
+        <v>0.9507374631268437</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4476129971899084</v>
+        <v>0.9496471016505812</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.46496076955683</v>
+        <v>90.94395280235987</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9388773526996375</v>
+        <v>0.2926943464560433</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5946496076955683</v>
+        <v>0.9094395280235987</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5720555307946393</v>
+        <v>0.8947925993400988</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.4250469294717</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="C27" t="n">
-        <v>1.046959181688726</v>
+        <v>0.657802990594458</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6542504692947171</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6517304332449839</v>
+        <v>0.82227372256422</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.26004550212372</v>
+        <v>84.89675516224189</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9545291523138681</v>
+        <v>0.5844865986301253</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6126004550212372</v>
+        <v>0.8489675516224189</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6025569562829775</v>
+        <v>0.8349068242863613</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>76.71000614192164</v>
+        <v>99.26253687315634</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5290875022610029</v>
+        <v>0.04077534912740397</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7671000614192165</v>
+        <v>0.9926253687315635</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7603726432467567</v>
+        <v>0.9926106969873256</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.5739842040156</v>
+        <v>99.38053097345133</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3545648033386291</v>
+        <v>0.01785245243236725</v>
       </c>
       <c r="D30" t="n">
-        <v>0.825739842040156</v>
+        <v>0.9938053097345133</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8260377157529908</v>
+        <v>0.9937786984849779</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.73757558456387</v>
+        <v>96.10619469026548</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2056827258667909</v>
+        <v>0.09070226442952579</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9373757558456388</v>
+        <v>0.9610619469026549</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9375054844723743</v>
+        <v>0.9597874799019662</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.959636329034</v>
+        <v>93.05314348163334</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8397056510669548</v>
+        <v>0.2133704022186569</v>
       </c>
       <c r="D32" t="n">
-        <v>0.65959636329034</v>
+        <v>0.9305314348163333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6466090294129375</v>
+        <v>0.9260378221591009</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.845333042662752</v>
+        <v>3.987275219767531</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2503328130282516</v>
+        <v>0.1513541712831892</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09845333042662753</v>
+        <v>0.03987275219767534</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1059173005592255</v>
+        <v>0.0444057993746182</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.50584347615464</v>
+        <v>88.99705014749262</v>
       </c>
       <c r="C2" t="n">
-        <v>0.815848552621901</v>
+        <v>0.3000476391999352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6550584347615465</v>
+        <v>0.8899705014749262</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6353326255810039</v>
+        <v>0.88478308588503</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.8345054888018</v>
+        <v>94.04129793510324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9789486594498158</v>
+        <v>0.1915413101455367</v>
       </c>
       <c r="D3" t="n">
-        <v>0.588345054888018</v>
+        <v>0.9404129793510325</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5484053648714882</v>
+        <v>0.9379802105526418</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.18507080511077</v>
+        <v>87.69911504424779</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8469564701120058</v>
+        <v>0.4008459102212025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6418507080511077</v>
+        <v>0.8769911504424778</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6292601743929772</v>
+        <v>0.8617126325756177</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.5306533793545</v>
+        <v>89.94117596172978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8039128779123226</v>
+        <v>0.2357966440358723</v>
       </c>
       <c r="D5" t="n">
-        <v>0.635306533793545</v>
+        <v>0.8994117596172977</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6137585598587504</v>
+        <v>0.894306707567733</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.18079741174232</v>
+        <v>94.95575221238938</v>
       </c>
       <c r="C6" t="n">
-        <v>1.063303453723589</v>
+        <v>0.1161137849480535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5018079741174232</v>
+        <v>0.9495575221238937</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4762356939350661</v>
+        <v>0.9501665325145818</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.03833943200201</v>
+        <v>86.54988364951254</v>
       </c>
       <c r="C7" t="n">
-        <v>1.103551739454269</v>
+        <v>0.3946677095644797</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5203833943200201</v>
+        <v>0.8654988364951255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5029031457608243</v>
+        <v>0.8472553325368375</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.14629019282174</v>
+        <v>90.3834808259587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6768340350633177</v>
+        <v>0.2434466171095058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7114629019282173</v>
+        <v>0.9038348082595871</v>
       </c>
       <c r="E8" t="n">
-        <v>0.701390195251349</v>
+        <v>0.8938246985167794</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.05714582306075</v>
+        <v>95.75221238938053</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6298826043649266</v>
+        <v>0.1073142828308316</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7605714582306076</v>
+        <v>0.9575221238938052</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7485534661545636</v>
+        <v>0.9566516885681082</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.84116644607653</v>
+        <v>98.58407079646017</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5731892487189423</v>
+        <v>0.04647905466896039</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7884116644607653</v>
+        <v>0.9858407079646018</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7928639916018898</v>
+        <v>0.9858231584245379</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.10273445272017</v>
+        <v>96.72566371681415</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7669637491305669</v>
+        <v>0.08519934445836649</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6610273445272018</v>
+        <v>0.9672566371681416</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6535717008141193</v>
+        <v>0.967308798409646</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69.19618681822507</v>
+        <v>88.76106194690266</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7220993275443713</v>
+        <v>0.3005475508854337</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6919618681822507</v>
+        <v>0.8876106194690265</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6913975439748705</v>
+        <v>0.8878328378661399</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.75903770793865</v>
+        <v>92.65486725663717</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9380114629864693</v>
+        <v>0.2358443361804045</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6475903770793865</v>
+        <v>0.9265486725663716</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6335491466461795</v>
+        <v>0.9184523417912394</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.39297917802057</v>
+        <v>88.49557522123894</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8795155602817735</v>
+        <v>0.3246111408884947</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6839297917802056</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="E14" t="n">
-        <v>0.659737381781321</v>
+        <v>0.8765807090932393</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.90040571285219</v>
+        <v>81.56445990017214</v>
       </c>
       <c r="C15" t="n">
-        <v>1.128714814285437</v>
+        <v>0.8381239426948014</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5690040571285219</v>
+        <v>0.8156445990017215</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5424107406140578</v>
+        <v>0.7883346757143457</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.22524416301179</v>
+        <v>88.08346092959282</v>
       </c>
       <c r="C16" t="n">
-        <v>1.057218376298745</v>
+        <v>0.2850398589662897</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5822524416301179</v>
+        <v>0.8808346092959282</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5708883782475491</v>
+        <v>0.8756463090467792</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.95980934091125</v>
+        <v>93.74631268436579</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9357976170877615</v>
+        <v>0.1694506616719688</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6395980934091126</v>
+        <v>0.9374631268436578</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6127185913094324</v>
+        <v>0.9363013378204303</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>57.56105156619002</v>
+        <v>90.44593811365151</v>
       </c>
       <c r="C18" t="n">
-        <v>1.045143357664347</v>
+        <v>0.227339214600291</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5756105156619002</v>
+        <v>0.904459381136515</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5359366645463063</v>
+        <v>0.8990253925024845</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.64212493187657</v>
+        <v>94.77876106194689</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7060948436458905</v>
+        <v>0.1518186194137039</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6964212493187658</v>
+        <v>0.947787610619469</v>
       </c>
       <c r="E19" t="n">
-        <v>0.689847866102211</v>
+        <v>0.9444522803482635</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67.01044126679297</v>
+        <v>93.5103244837758</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8856241591274738</v>
+        <v>0.168229780870206</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6701044126679296</v>
+        <v>0.9351032448377581</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6543759660764132</v>
+        <v>0.9285955586436113</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>65.10852170001471</v>
+        <v>76.16899800171282</v>
       </c>
       <c r="C21" t="n">
-        <v>0.893898776328812</v>
+        <v>0.6682071539476359</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6510852170001471</v>
+        <v>0.7616899800171282</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6325879997225713</v>
+        <v>0.7393028605399004</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.60255711554598</v>
+        <v>91.91826918917984</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6820393533756335</v>
+        <v>0.2274816126989511</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7560255711554598</v>
+        <v>0.9191826918917985</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7431737420518612</v>
+        <v>0.9100836608637387</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>57.56952914817602</v>
+        <v>90.11799410029498</v>
       </c>
       <c r="C23" t="n">
-        <v>1.032362863545616</v>
+        <v>0.2731763369461987</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5756952914817602</v>
+        <v>0.9011799410029498</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5462455578693232</v>
+        <v>0.8996656619090351</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.43246913900639</v>
+        <v>93.68731563421829</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9352382565538088</v>
+        <v>0.1643734402177263</v>
       </c>
       <c r="D24" t="n">
-        <v>0.634324691390064</v>
+        <v>0.9368731563421828</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6178525289717711</v>
+        <v>0.9362089922251352</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.00539797057068</v>
+        <v>91.4161022154171</v>
       </c>
       <c r="C25" t="n">
-        <v>1.077954360842705</v>
+        <v>0.2316821462402004</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5400539797057068</v>
+        <v>0.9141610221541709</v>
       </c>
       <c r="E25" t="n">
-        <v>0.520333656717904</v>
+        <v>0.9112218612259403</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.95290616700836</v>
+        <v>91.41662125104889</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8265526865919431</v>
+        <v>0.1987225847841425</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6595290616700836</v>
+        <v>0.9141662125104888</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6345862796575956</v>
+        <v>0.906041027310431</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>63.87235183695361</v>
+        <v>82.8023598820059</v>
       </c>
       <c r="C27" t="n">
-        <v>1.096997054045399</v>
+        <v>0.7394261039293724</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6387235183695361</v>
+        <v>0.828023598820059</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6293853267931472</v>
+        <v>0.8173766598216006</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.49830015830587</v>
+        <v>82.12389380530973</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9626921308537325</v>
+        <v>0.6506426917156205</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6349830015830586</v>
+        <v>0.8212389380530973</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6105437338563141</v>
+        <v>0.8141415528238017</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>74.23749340392217</v>
+        <v>99.02654867256638</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6853173517932494</v>
+        <v>0.0309455229496128</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7423749340392218</v>
+        <v>0.9902654867256636</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7237490696271026</v>
+        <v>0.9902741473800314</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.19011410133305</v>
+        <v>97.58112094395281</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4816260491381399</v>
+        <v>0.05642076338230215</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7719011410133306</v>
+        <v>0.9758112094395279</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7536959411840085</v>
+        <v>0.975961636461896</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.8207077915899</v>
+        <v>94.66076696165192</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2050196502202501</v>
+        <v>0.1355727572014265</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9382070779158991</v>
+        <v>0.9466076696165192</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9379787430579067</v>
+        <v>0.9433880935887744</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.87867253753637</v>
+        <v>90.88634849782439</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8479103147587738</v>
+        <v>0.2733036172455842</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6587867253753638</v>
+        <v>0.9088634849782438</v>
       </c>
       <c r="E32" t="n">
-        <v>0.641442325900996</v>
+        <v>0.9026233480842777</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.833722615004278</v>
+        <v>5.195732146237781</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2065798250508102</v>
+        <v>0.200335777813284</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0883372261500428</v>
+        <v>0.0519573214623778</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09478944349166946</v>
+        <v>0.05745120221628625</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.64151939030614</v>
+        <v>88.23026150745248</v>
       </c>
       <c r="C2" t="n">
-        <v>1.021987309368948</v>
+        <v>0.2946920414292739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5964151939030614</v>
+        <v>0.8823026150745248</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5650531945346166</v>
+        <v>0.8791512095643735</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.34150814453412</v>
+        <v>91.91740412979351</v>
       </c>
       <c r="C3" t="n">
-        <v>1.062809740426019</v>
+        <v>0.25383655486512</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5834150814453413</v>
+        <v>0.9191740412979351</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5312942302221921</v>
+        <v>0.9100385967206683</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.74308601285478</v>
+        <v>87.0796460176991</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9535103251536687</v>
+        <v>0.3823140349675668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6074308601285479</v>
+        <v>0.8707964601769911</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5720094099303051</v>
+        <v>0.857603745017338</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.46156973676243</v>
+        <v>88.76244604192078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9554143699506918</v>
+        <v>0.2844655517993184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5746156973676243</v>
+        <v>0.8876244604192077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5380266022724426</v>
+        <v>0.8773480166507424</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.8962101748285</v>
+        <v>91.59292035398229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.998887625336647</v>
+        <v>0.2431539554148912</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5189621017482851</v>
+        <v>0.9159292035398231</v>
       </c>
       <c r="E6" t="n">
-        <v>0.500464768062552</v>
+        <v>0.9124150895210402</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.97673855310167</v>
+        <v>90.88512876408966</v>
       </c>
       <c r="C7" t="n">
-        <v>1.267603109280268</v>
+        <v>0.2393717801450596</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5097673855310167</v>
+        <v>0.9088512876408965</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4843024733078102</v>
+        <v>0.907134387833565</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.8116160174396</v>
+        <v>90.47197640117994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6801752173254499</v>
+        <v>0.2359137982849461</v>
       </c>
       <c r="D8" t="n">
-        <v>0.728116160174396</v>
+        <v>0.9047197640117994</v>
       </c>
       <c r="E8" t="n">
-        <v>0.724332555082173</v>
+        <v>0.8970218736906806</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.54426076350141</v>
+        <v>91.79941002949853</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6004085791607697</v>
+        <v>0.2162342227391491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7654426076350141</v>
+        <v>0.9179941002949853</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7577130435188606</v>
+        <v>0.9120773783627764</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.69748008200763</v>
+        <v>96.81744651770344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.567063781611311</v>
+        <v>0.08514661358915418</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7869748008200763</v>
+        <v>0.9681744651770344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7915561165576936</v>
+        <v>0.9681137309904237</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.14494935077293</v>
+        <v>95.63421828908555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7695872191650172</v>
+        <v>0.09984099125261611</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6614494935077293</v>
+        <v>0.9563421828908554</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6507182248122366</v>
+        <v>0.9560612909754413</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.69209941262469</v>
+        <v>87.72861356932154</v>
       </c>
       <c r="C12" t="n">
-        <v>0.769890766342481</v>
+        <v>0.3487295374565292</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6669209941262467</v>
+        <v>0.8772861356932153</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6584415703722485</v>
+        <v>0.8693890878888736</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.81650360297235</v>
+        <v>92.00589970501474</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8112631243964037</v>
+        <v>0.2405076059420632</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6781650360297234</v>
+        <v>0.9200589970501476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6711105850144884</v>
+        <v>0.913828652366262</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.00151385392607</v>
+        <v>85.45722713864306</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8985554723689955</v>
+        <v>0.390956132140612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6500151385392607</v>
+        <v>0.8545722713864308</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6336524955515925</v>
+        <v>0.8477230490168765</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.66980683223903</v>
+        <v>85.69529148176022</v>
       </c>
       <c r="C15" t="n">
-        <v>1.019737748553356</v>
+        <v>0.4025195557352466</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5966980683223903</v>
+        <v>0.8569529148176022</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5698967737474527</v>
+        <v>0.8508502107578835</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.83154698570057</v>
+        <v>87.22800370245417</v>
       </c>
       <c r="C16" t="n">
-        <v>1.108248706410329</v>
+        <v>0.3329022109712241</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5683154698570057</v>
+        <v>0.8722800370245418</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5496102649598475</v>
+        <v>0.8659768760405221</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.08559762627705</v>
+        <v>92.74353584373567</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9302205773380896</v>
+        <v>0.203395421509534</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6508559762627704</v>
+        <v>0.9274353584373568</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6329160034328909</v>
+        <v>0.9251762635304555</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.21073711710309</v>
+        <v>87.35326430159429</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9441053772966066</v>
+        <v>0.2907031854292048</v>
       </c>
       <c r="D18" t="n">
-        <v>0.612107371171031</v>
+        <v>0.873532643015943</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5650606640195346</v>
+        <v>0.8685053806631423</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.55052379345842</v>
+        <v>94.27728613569322</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6700658775866032</v>
+        <v>0.1482397879421872</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7055052379345842</v>
+        <v>0.9427728613569322</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7008516573394765</v>
+        <v>0.941185878860207</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66.86710092647861</v>
+        <v>91.71091445427729</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8455710651973882</v>
+        <v>0.2443755270185647</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6686710092647861</v>
+        <v>0.9171091445427729</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6682217038496268</v>
+        <v>0.9119859212837593</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>58.23692246472719</v>
+        <v>79.47127570307701</v>
       </c>
       <c r="C21" t="n">
-        <v>1.122416199570095</v>
+        <v>0.5812410395359621</v>
       </c>
       <c r="D21" t="n">
-        <v>0.582369224647272</v>
+        <v>0.7947127570307702</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5544369272478066</v>
+        <v>0.7750587755598699</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.15228505436899</v>
+        <v>90.53235754634555</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7549770062168439</v>
+        <v>0.2243101974347761</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7415228505436898</v>
+        <v>0.9053235754634557</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7243913005527822</v>
+        <v>0.9032271616576022</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>56.56311905812333</v>
+        <v>87.93510324483775</v>
       </c>
       <c r="C23" t="n">
-        <v>1.000432962924242</v>
+        <v>0.3135718054856019</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5656311905812335</v>
+        <v>0.8793510324483776</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5454505897224302</v>
+        <v>0.8792320088579691</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.21991539719202</v>
+        <v>93.15634218289085</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8640447673698267</v>
+        <v>0.18174424040335</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6221991539719202</v>
+        <v>0.9315634218289086</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6135110075921069</v>
+        <v>0.9323034084540469</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.28602323549512</v>
+        <v>91.41592920353983</v>
       </c>
       <c r="C25" t="n">
-        <v>1.073851502935092</v>
+        <v>0.2104507446141118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5428602323549512</v>
+        <v>0.9141592920353983</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5232934100411479</v>
+        <v>0.9111093673490949</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.56144084291386</v>
+        <v>91.23911106497461</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8698222869386276</v>
+        <v>0.2182623750598092</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6256144084291386</v>
+        <v>0.9123911106497461</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6169703762875033</v>
+        <v>0.9092408833575085</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67.22186178081125</v>
+        <v>83.09751814462064</v>
       </c>
       <c r="C27" t="n">
-        <v>1.018634705307583</v>
+        <v>0.6450391158500376</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6722186178081124</v>
+        <v>0.8309751814462063</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6534056506360955</v>
+        <v>0.8256734089422209</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.11081410738848</v>
+        <v>82.27155944255574</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8971890745684504</v>
+        <v>0.6734700398771868</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6011081410738848</v>
+        <v>0.8227155944255573</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5870543071317372</v>
+        <v>0.8083843423979694</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>74.99320928381732</v>
+        <v>98.49557522123894</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6285507337500651</v>
+        <v>0.04580384602384886</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7499320928381733</v>
+        <v>0.9849557522123893</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7318569849131629</v>
+        <v>0.9850181820908579</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>78.28000242216629</v>
+        <v>97.78761061946902</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4529936451115645</v>
+        <v>0.05650380534333029</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7828000242216628</v>
+        <v>0.9778761061946902</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7794865574535881</v>
+        <v>0.9780924371413283</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.55678682341542</v>
+        <v>96.90265486725664</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1687892983007866</v>
+        <v>0.1032670429479727</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9455678682341542</v>
+        <v>0.9690265486725664</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9453229068399456</v>
+        <v>0.9686952723045325</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.20555829491028</v>
+        <v>90.32319772085687</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8575602725087407</v>
+        <v>0.273032092040275</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6520555829491027</v>
+        <v>0.9032319772085685</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6346804118335447</v>
+        <v>0.8982540629282677</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.238906645189291</v>
+        <v>4.499156406878122</v>
       </c>
       <c r="C33" t="n">
-        <v>0.222155865342562</v>
+        <v>0.1514127452987342</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09238906645189286</v>
+        <v>0.04499156406878121</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1010450912633281</v>
+        <v>0.04867051178944447</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.26812515679202</v>
+        <v>85.96181627868752</v>
       </c>
       <c r="C2" t="n">
-        <v>1.007202343425403</v>
+        <v>0.3521136418028618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6526812515679201</v>
+        <v>0.8596181627868754</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6091814517308732</v>
+        <v>0.8554517369581245</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.7350755629374</v>
+        <v>86.82246386214413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.819603773454825</v>
+        <v>0.3778224777507906</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6473507556293739</v>
+        <v>0.8682246386214413</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6287200856223656</v>
+        <v>0.861017125573361</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.2940336854125</v>
+        <v>88.43657817109144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8926908845702807</v>
+        <v>0.3010136585199689</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6029403368541251</v>
+        <v>0.8843657817109145</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5764419069342103</v>
+        <v>0.8842058017173567</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.53428662877707</v>
+        <v>84.80825958702064</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8811140283942223</v>
+        <v>0.3686076371353314</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6353428662877707</v>
+        <v>0.8480825958702065</v>
       </c>
       <c r="E5" t="n">
-        <v>0.622761449480959</v>
+        <v>0.8479931180314824</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.92363255737506</v>
+        <v>86.49400081315582</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9955779065688452</v>
+        <v>0.3486856980249285</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5192363255737507</v>
+        <v>0.8649400081315581</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4798631687414537</v>
+        <v>0.8630007182331845</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.94032820353117</v>
+        <v>79.58823173210841</v>
       </c>
       <c r="C7" t="n">
-        <v>1.297224496801694</v>
+        <v>0.5280514648960282</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5194032820353117</v>
+        <v>0.7958823173210841</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4905046528693154</v>
+        <v>0.7899534109455277</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.76126956115537</v>
+        <v>83.24881703128919</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6637353434392329</v>
+        <v>0.3965604785415053</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7276126956115537</v>
+        <v>0.832488170312892</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7196725524668677</v>
+        <v>0.8295427109173958</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.2543015077985</v>
+        <v>85.78396006885873</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6201683648784335</v>
+        <v>0.4094845099820911</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7725430150779851</v>
+        <v>0.8578396006885873</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7647129858732791</v>
+        <v>0.8535450852807331</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.83927196602046</v>
+        <v>82.69474649434684</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5059990818301837</v>
+        <v>0.4619147229564987</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7983927196602046</v>
+        <v>0.8269474649434685</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7895670684602047</v>
+        <v>0.8188489997384794</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.12066713379873</v>
+        <v>89.15094421232018</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6624997336417436</v>
+        <v>0.2995280843984801</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6912066713379874</v>
+        <v>0.8915094421232018</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6805721613409934</v>
+        <v>0.8895606485061698</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65.07538992551839</v>
+        <v>82.5972543015078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.819371085613966</v>
+        <v>0.5417668937103979</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6507538992551839</v>
+        <v>0.8259725430150781</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6448634344791949</v>
+        <v>0.8189933134746706</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.22229431050441</v>
+        <v>88.2302615074525</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8813059819241366</v>
+        <v>0.3572513238914932</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6722229431050442</v>
+        <v>0.882302615074525</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6593382514183236</v>
+        <v>0.8744477214352806</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62.58574901166966</v>
+        <v>79.39125770984178</v>
       </c>
       <c r="C14" t="n">
-        <v>1.08120080664133</v>
+        <v>0.6448496736586093</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6258574901166966</v>
+        <v>0.7939125770984179</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6044620493726406</v>
+        <v>0.7688690601149003</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.94130572063771</v>
+        <v>79.09350426906806</v>
       </c>
       <c r="C15" t="n">
-        <v>1.070066293577353</v>
+        <v>0.5001110521145165</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5494130572063772</v>
+        <v>0.7909350426906807</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5400446278630678</v>
+        <v>0.782228050159915</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.36459657955519</v>
+        <v>83.42407806295903</v>
       </c>
       <c r="C16" t="n">
-        <v>1.120890959600608</v>
+        <v>0.4319840657214324</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5736459657955518</v>
+        <v>0.8342407806295903</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5473060087682413</v>
+        <v>0.8296268012598846</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.61676139066947</v>
+        <v>88.05776866581891</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8734014303733906</v>
+        <v>0.2723809842369519</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6761676139066947</v>
+        <v>0.880577686658189</v>
       </c>
       <c r="E17" t="n">
-        <v>0.658304180880387</v>
+        <v>0.8785874499025663</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.04205053676935</v>
+        <v>80.04230140399139</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8858666680753231</v>
+        <v>0.5270283107257758</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6104205053676935</v>
+        <v>0.8004230140399138</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5620300209079263</v>
+        <v>0.7939954482872962</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.78149464960769</v>
+        <v>90.82613171394216</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7019598195950191</v>
+        <v>0.2339303136817762</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7078149464960769</v>
+        <v>0.9082613171394216</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6926529794390988</v>
+        <v>0.9071085396413562</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63.91015493213609</v>
+        <v>84.27728613569322</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9243345588445664</v>
+        <v>0.4646181426321466</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6391015493213609</v>
+        <v>0.8427728613569322</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6218291211778786</v>
+        <v>0.8299386789450386</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61.69084507651451</v>
+        <v>76.05567522210399</v>
       </c>
       <c r="C21" t="n">
-        <v>1.117565782438032</v>
+        <v>0.688112114276737</v>
       </c>
       <c r="D21" t="n">
-        <v>0.616908450765145</v>
+        <v>0.76055675222104</v>
       </c>
       <c r="E21" t="n">
-        <v>0.603801771606044</v>
+        <v>0.7472264887077047</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.87096774193549</v>
+        <v>85.10757013468974</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8902960679804284</v>
+        <v>0.3987954083674898</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7387096774193548</v>
+        <v>0.8510757013468975</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7052972774919143</v>
+        <v>0.8468126784226471</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58.93113262225452</v>
+        <v>84.66076696165192</v>
       </c>
       <c r="C23" t="n">
-        <v>1.042474066528181</v>
+        <v>0.4093529772323866</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5893113262225451</v>
+        <v>0.8466076696165192</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5665083365430029</v>
+        <v>0.8426726415370274</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64.1433749426898</v>
+        <v>85.13412745784998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9004796896129846</v>
+        <v>0.3852286244121691</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6414337494268981</v>
+        <v>0.8513412745784998</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6307824484548912</v>
+        <v>0.8535302628090357</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.10690403896227</v>
+        <v>84.8094706701615</v>
       </c>
       <c r="C25" t="n">
-        <v>1.383660228550434</v>
+        <v>0.348281100159511</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4810690403896228</v>
+        <v>0.8480947067016151</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4318412003249632</v>
+        <v>0.8438717926228391</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.71830206143652</v>
+        <v>87.25663716814159</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8579037939508757</v>
+        <v>0.344029162391477</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6571830206143652</v>
+        <v>0.8725663716814159</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6322222374461657</v>
+        <v>0.8672186916220964</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.22789989532781</v>
+        <v>77.87749028970839</v>
       </c>
       <c r="C27" t="n">
-        <v>1.012674885025869</v>
+        <v>0.812444618732358</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6522789989532781</v>
+        <v>0.7787749028970838</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6474149141934507</v>
+        <v>0.774080290012309</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.52726234656009</v>
+        <v>83.06784660766962</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9109191610943526</v>
+        <v>0.5949757665861398</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6152726234656009</v>
+        <v>0.8306784660766962</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6000461346094338</v>
+        <v>0.8199095527917593</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>75.50402685144336</v>
+        <v>95.92954956357754</v>
       </c>
       <c r="C29" t="n">
-        <v>0.585170612608393</v>
+        <v>0.138195342705391</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7550402685144335</v>
+        <v>0.9592954956357754</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7426491904620869</v>
+        <v>0.9582465693319934</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>79.68520488931566</v>
+        <v>82.58869021358316</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4924771930682861</v>
+        <v>0.5400579633026307</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7968520488931565</v>
+        <v>0.8258869021358317</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7626057201580605</v>
+        <v>0.8179097788951866</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.7075666744522</v>
+        <v>97.1976401179941</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1695498529394778</v>
+        <v>0.09659252802418905</v>
       </c>
       <c r="D31" t="n">
-        <v>0.947075666744522</v>
+        <v>0.9719764011799409</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9471023911312553</v>
+        <v>0.9718383656512779</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.87747587205195</v>
+        <v>84.9538375476143</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8689128298349291</v>
+        <v>0.4191256246857354</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6587747587205194</v>
+        <v>0.8495383754761431</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6387699926749517</v>
+        <v>0.8440077177175532</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.401404719167884</v>
+        <v>4.622390445597649</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2432541121489755</v>
+        <v>0.149467713931958</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09401404719167883</v>
+        <v>0.04622390445597648</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1008335340013069</v>
+        <v>0.04932536678183234</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.94884903848649</v>
+        <v>76.61164888969628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8850407364467779</v>
+        <v>0.7027409738240142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6694884903848649</v>
+        <v>0.7661164888969628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6437466648310863</v>
+        <v>0.7406200053299605</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.18359155356016</v>
+        <v>81.512210313238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7922393893202145</v>
+        <v>0.4975078370111684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6318359155356015</v>
+        <v>0.81512210313238</v>
       </c>
       <c r="E3" t="n">
-        <v>0.624848533745985</v>
+        <v>0.8035093239815826</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.95816572807723</v>
+        <v>82.00987897819185</v>
       </c>
       <c r="C4" t="n">
-        <v>1.2751117912742</v>
+        <v>0.4564514714137961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5395816572807723</v>
+        <v>0.8200987897819185</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4991487581505208</v>
+        <v>0.819683896395464</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.89257692540593</v>
+        <v>79.41764202112475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9133114164074263</v>
+        <v>0.462876824553435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6189257692540593</v>
+        <v>0.7941764202112476</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5971080470299661</v>
+        <v>0.7832426102135104</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.5984567340548</v>
+        <v>85.78534416387686</v>
       </c>
       <c r="C6" t="n">
-        <v>1.024486778179805</v>
+        <v>0.3502909807488322</v>
       </c>
       <c r="D6" t="n">
-        <v>0.515984567340548</v>
+        <v>0.8578534416387684</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4549467957787843</v>
+        <v>0.858636597827665</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.35831624841045</v>
+        <v>75.26907672211698</v>
       </c>
       <c r="C7" t="n">
-        <v>1.299851069847743</v>
+        <v>0.5759566207726796</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5135831624841045</v>
+        <v>0.7526907672211698</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4889563606420469</v>
+        <v>0.7500851573399711</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.15933528836754</v>
+        <v>80.80476474709988</v>
       </c>
       <c r="C8" t="n">
-        <v>0.75788639873111</v>
+        <v>0.4554607533107628</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6915933528836755</v>
+        <v>0.808047647470999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6782189237634355</v>
+        <v>0.8054522526350023</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.54477979913321</v>
+        <v>83.98974039567817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5834228738211096</v>
+        <v>0.432574565821172</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7654477979913321</v>
+        <v>0.8398974039567817</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7517802415688528</v>
+        <v>0.8370300249693514</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.95326949195062</v>
+        <v>79.35656882845008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5597426416507612</v>
+        <v>0.5741050070886559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7795326949195063</v>
+        <v>0.7935656882845008</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7832962115350288</v>
+        <v>0.7835029797532741</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.8594711026912</v>
+        <v>83.57131117051185</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9519587005178133</v>
+        <v>0.4703694279460858</v>
       </c>
       <c r="D11" t="n">
-        <v>0.548594711026912</v>
+        <v>0.8357131117051185</v>
       </c>
       <c r="E11" t="n">
-        <v>0.524049825461338</v>
+        <v>0.8325635387743381</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65.75160684781011</v>
+        <v>80.20700871114802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7990719666083654</v>
+        <v>0.5140503463490556</v>
       </c>
       <c r="D12" t="n">
-        <v>0.657516068478101</v>
+        <v>0.8020700871114801</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6500274796728192</v>
+        <v>0.8011949415918161</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.18173167587955</v>
+        <v>80.36989939359337</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8479192838072777</v>
+        <v>0.561380489077419</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6818173167587955</v>
+        <v>0.8036989939359337</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6727250735439035</v>
+        <v>0.7964300471162991</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70.31332450972759</v>
+        <v>74.66837948425159</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8069541477908692</v>
+        <v>0.8125523708139857</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7031332450972759</v>
+        <v>0.7466837948425159</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6914785700467406</v>
+        <v>0.7196617470419594</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.78171956504814</v>
+        <v>68.96210174828502</v>
       </c>
       <c r="C15" t="n">
-        <v>1.133506025870641</v>
+        <v>0.7485424727201462</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5678171956504814</v>
+        <v>0.6896210174828502</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5382617959917372</v>
+        <v>0.6855081372112395</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.43655221930986</v>
+        <v>75.03222346214068</v>
       </c>
       <c r="C16" t="n">
-        <v>1.315981990098953</v>
+        <v>0.6772609173785895</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4543655221930986</v>
+        <v>0.7503222346214068</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4407635984944483</v>
+        <v>0.7399280180005843</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56.55810171368264</v>
+        <v>82.40598967119092</v>
       </c>
       <c r="C17" t="n">
-        <v>1.124100439622998</v>
+        <v>0.4168965556658805</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5655810171368264</v>
+        <v>0.8240598967119093</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5412012277218222</v>
+        <v>0.8219226168756155</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.03203314907569</v>
+        <v>71.32682808674815</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8404193778832754</v>
+        <v>0.78525019340838</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6303203314907568</v>
+        <v>0.7132682808674815</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6122120557271429</v>
+        <v>0.6899911608129889</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.67402832204431</v>
+        <v>85.78447910449052</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7404023910562196</v>
+        <v>0.3305569127056515</v>
       </c>
       <c r="D19" t="n">
-        <v>0.676740283220443</v>
+        <v>0.8578447910449052</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6709092698704782</v>
+        <v>0.8575052437555554</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>65.94243894843382</v>
+        <v>74.99182518879921</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8712495535612106</v>
+        <v>0.7132869218786557</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6594243894843381</v>
+        <v>0.7499182518879921</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6572185512359143</v>
+        <v>0.7448509689045378</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.33825552124154</v>
+        <v>65.68032595437677</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0428709244666</v>
+        <v>1.190242139374216</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6233825552124153</v>
+        <v>0.6568032595437676</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5955916701882911</v>
+        <v>0.6176480760246299</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.60794643552279</v>
+        <v>80.04091730897326</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5149284273386001</v>
+        <v>0.6420923821628094</v>
       </c>
       <c r="D22" t="n">
-        <v>0.786079464355228</v>
+        <v>0.8004091730897326</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7793367849978864</v>
+        <v>0.7874828936604272</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.57711571899411</v>
+        <v>80.35865362157112</v>
       </c>
       <c r="C23" t="n">
-        <v>1.193991133819024</v>
+        <v>0.5581751132228722</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5457711571899411</v>
+        <v>0.8035865362157113</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4963993554802333</v>
+        <v>0.7922712528746831</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.71636432841115</v>
+        <v>76.44884471318956</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8808506185809772</v>
+        <v>0.5921767404768616</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6171636432841114</v>
+        <v>0.7644884471318956</v>
       </c>
       <c r="E24" t="n">
-        <v>0.611400062912127</v>
+        <v>0.7573070993009512</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.80745508179136</v>
+        <v>79.03260408827066</v>
       </c>
       <c r="C25" t="n">
-        <v>1.168632109463215</v>
+        <v>0.4902529388666153</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5180745508179136</v>
+        <v>0.7903260408827066</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4840087128359089</v>
+        <v>0.7858654804532955</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61.94456699452417</v>
+        <v>84.45687246429468</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9140675380825997</v>
+        <v>0.3888059385314894</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6194456699452418</v>
+        <v>0.8445687246429466</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5960036601540761</v>
+        <v>0.8408520971111404</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66.86147804046747</v>
+        <v>71.2229344544503</v>
       </c>
       <c r="C27" t="n">
-        <v>1.014348234484593</v>
+        <v>0.9746316466092443</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6686147804046748</v>
+        <v>0.7122293445445029</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6472913475594416</v>
+        <v>0.7083569578816757</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.9248955440791</v>
+        <v>74.04389311326221</v>
       </c>
       <c r="C28" t="n">
-        <v>1.265577855706215</v>
+        <v>0.9620944304391742</v>
       </c>
       <c r="D28" t="n">
-        <v>0.479248955440791</v>
+        <v>0.7404389311326223</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4390430824591394</v>
+        <v>0.7208394987871303</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>76.41277173677972</v>
+        <v>92.27138643067846</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5754880830645561</v>
+        <v>0.2383391674860225</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7641277173677973</v>
+        <v>0.9227138643067846</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7521041253961213</v>
+        <v>0.9227258747110006</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.37436310002681</v>
+        <v>86.5243643976159</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5385332554229535</v>
+        <v>0.314971004522037</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7637436310002681</v>
+        <v>0.865243643976159</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7511011765487916</v>
+        <v>0.8629126627116172</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.53038521094473</v>
+        <v>96.46121506241403</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2724283543478426</v>
+        <v>0.1132194060704933</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9253038521094472</v>
+        <v>0.9646121506241403</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9245596605949974</v>
+        <v>0.9641536378936124</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.94079821913108</v>
+        <v>79.62063108965764</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8968124502424649</v>
+        <v>0.5667704183416732</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6394079821913107</v>
+        <v>0.7962063108965765</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6199245874646356</v>
+        <v>0.7877244933313627</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.44335979499563</v>
+        <v>6.401356040042773</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2582159631992547</v>
+        <v>0.2251751079895183</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1044335979499564</v>
+        <v>0.06401356040042774</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1148758268969867</v>
+        <v>0.07029848092265345</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.9489874479883</v>
+        <v>63.01706762169223</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8500974601755539</v>
+        <v>0.8516035099824271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.629489874479883</v>
+        <v>0.6301706762169224</v>
       </c>
       <c r="E2" t="n">
-        <v>0.610461179141095</v>
+        <v>0.611947250816553</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.13532123980311</v>
+        <v>58.32187129646449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9754658252000808</v>
+        <v>1.059858535726865</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5313532123980311</v>
+        <v>0.583218712964645</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5116943160684594</v>
+        <v>0.5613544213123498</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.72719487192796</v>
+        <v>66.73301672159793</v>
       </c>
       <c r="C4" t="n">
-        <v>1.325991118947665</v>
+        <v>0.7555661102135977</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4372719487192795</v>
+        <v>0.6673301672159794</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3960465519510062</v>
+        <v>0.6628308475918365</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.11295945466657</v>
+        <v>54.12875543906089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9662297019734979</v>
+        <v>0.9821388910214106</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5811295945466657</v>
+        <v>0.5412875543906089</v>
       </c>
       <c r="E5" t="n">
-        <v>0.550164685089334</v>
+        <v>0.5256482539321073</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.50475350132787</v>
+        <v>59.39774565523923</v>
       </c>
       <c r="C6" t="n">
-        <v>1.037447481354078</v>
+        <v>0.9012127846479416</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4950475350132787</v>
+        <v>0.5939774565523923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4528497896337624</v>
+        <v>0.5898183797304537</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.73464303324423</v>
+        <v>43.72805993131428</v>
       </c>
       <c r="C7" t="n">
-        <v>1.160514597098033</v>
+        <v>1.208429461717606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4473464303324423</v>
+        <v>0.4372805993131428</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4269592246304022</v>
+        <v>0.4369902406596374</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.31113590948019</v>
+        <v>69.40838588569105</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7917922731488943</v>
+        <v>0.78003756935553</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6731113590948018</v>
+        <v>0.6940838588569106</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6660185307258872</v>
+        <v>0.6888110920223005</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.5501518179223</v>
+        <v>62.9899912629002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7588529221092661</v>
+        <v>0.7540882944439848</v>
       </c>
       <c r="D9" t="n">
-        <v>0.675501518179223</v>
+        <v>0.6298999126290019</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6467790943991731</v>
+        <v>0.6176795374820269</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.82830301300184</v>
+        <v>71.73479009333991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6926734865953525</v>
+        <v>0.7017113332326212</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7182830301300184</v>
+        <v>0.7173479009333991</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7125411984388452</v>
+        <v>0.7219389426677121</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.62568880353636</v>
+        <v>71.33963096566579</v>
       </c>
       <c r="C11" t="n">
-        <v>1.075382619599501</v>
+        <v>0.7201856888830662</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4962568880353636</v>
+        <v>0.7133963096566579</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4526100028916902</v>
+        <v>0.7112985353766385</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.55166567184838</v>
+        <v>65.08179136497721</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9620977113644283</v>
+        <v>0.8264561822017035</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5255166567184837</v>
+        <v>0.650817913649772</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5074435118689669</v>
+        <v>0.6460684596722208</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.81052604261282</v>
+        <v>68.83502452443361</v>
       </c>
       <c r="C13" t="n">
-        <v>1.022051074107488</v>
+        <v>0.7862510095040004</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5681052604261282</v>
+        <v>0.688350245244336</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5442286770092798</v>
+        <v>0.6775083821083201</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.2741805724963</v>
+        <v>61.82415072794747</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9843732381860415</v>
+        <v>0.977190318206946</v>
       </c>
       <c r="D14" t="n">
-        <v>0.552741805724963</v>
+        <v>0.6182415072794747</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5258035495724237</v>
+        <v>0.5849946846340401</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.47177743752108</v>
+        <v>46.83881348454572</v>
       </c>
       <c r="C15" t="n">
-        <v>1.179726573824883</v>
+        <v>1.166786615053813</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4747177743752108</v>
+        <v>0.4683881348454572</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4409584261318548</v>
+        <v>0.4587063261921115</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.848095571761</v>
+        <v>54.73940085986904</v>
       </c>
       <c r="C16" t="n">
-        <v>1.178994022806485</v>
+        <v>1.074348706007004</v>
       </c>
       <c r="D16" t="n">
-        <v>0.49848095571761</v>
+        <v>0.5473940085986904</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4673319787516994</v>
+        <v>0.527353909394462</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.67465116480246</v>
+        <v>65.10644555748752</v>
       </c>
       <c r="C17" t="n">
-        <v>1.057230646908283</v>
+        <v>0.8932427989939848</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4967465116480246</v>
+        <v>0.6510644555748752</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4787465873347351</v>
+        <v>0.6426901179003386</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60.37880950527254</v>
+        <v>60.90355452901841</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8491784701744715</v>
+        <v>0.8728774361312389</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6037880950527253</v>
+        <v>0.6090355452901842</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5676877830879522</v>
+        <v>0.589376466281115</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.74273998910026</v>
+        <v>65.4920025259734</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8387480328480402</v>
+        <v>0.8520089127123356</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6074273998910025</v>
+        <v>0.6549200252597341</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5792182276019738</v>
+        <v>0.6384921732835847</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.29953546310954</v>
+        <v>61.29854064481526</v>
       </c>
       <c r="C20" t="n">
-        <v>1.081230736772219</v>
+        <v>0.9707212517658869</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5629953546310954</v>
+        <v>0.6129854064481527</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5499350031073894</v>
+        <v>0.6000503772256077</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>58.92196299275945</v>
+        <v>60.8926547807507</v>
       </c>
       <c r="C21" t="n">
-        <v>1.002347639699777</v>
+        <v>1.01771658960109</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5892196299275945</v>
+        <v>0.608926547807507</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5701725573778054</v>
+        <v>0.5876939352284716</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.57563646744349</v>
+        <v>60.30839367122553</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8719408872226874</v>
+        <v>0.9897461086511612</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7357563646744349</v>
+        <v>0.6030839367122554</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7039308821286905</v>
+        <v>0.5972596128787666</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51.0043339475255</v>
+        <v>49.75328506301958</v>
       </c>
       <c r="C23" t="n">
-        <v>1.01555058658123</v>
+        <v>1.137143516540527</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5100433394752549</v>
+        <v>0.4975328506301958</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4938889666523661</v>
+        <v>0.4892950157011821</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>48.75448749556657</v>
+        <v>61.69620844470973</v>
       </c>
       <c r="C24" t="n">
-        <v>1.075737951199214</v>
+        <v>1.009514697392782</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4875448749556657</v>
+        <v>0.6169620844470973</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4466126864031259</v>
+        <v>0.5982947152962953</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.62482374415004</v>
+        <v>56.85620117821088</v>
       </c>
       <c r="C25" t="n">
-        <v>1.567701103289922</v>
+        <v>1.01788350045681</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3962482374415003</v>
+        <v>0.5685620117821089</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3356309092258373</v>
+        <v>0.5579907906483926</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.64687410790751</v>
+        <v>64.72884713535584</v>
       </c>
       <c r="C26" t="n">
-        <v>1.009706608454386</v>
+        <v>0.812709962328275</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5864687410790751</v>
+        <v>0.6472884713535584</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5716693439188159</v>
+        <v>0.643745820627365</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.82264552461526</v>
+        <v>55.49407866850059</v>
       </c>
       <c r="C27" t="n">
-        <v>1.177850253631671</v>
+        <v>1.22591933409373</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4782264552461527</v>
+        <v>0.554940786685006</v>
       </c>
       <c r="E27" t="n">
-        <v>0.461716435130166</v>
+        <v>0.5525851651097315</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33297000839107</v>
+        <v>69.10613413610845</v>
       </c>
       <c r="C28" t="n">
-        <v>1.12032177845637</v>
+        <v>0.8239000391215086</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4133297000839107</v>
+        <v>0.6910613413610844</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3735403050521037</v>
+        <v>0.6800410172851394</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65.49217553785067</v>
+        <v>71.12224154188185</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8555966340005398</v>
+        <v>0.7051360676685969</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6549217553785067</v>
+        <v>0.7112224154188185</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6265291335900778</v>
+        <v>0.7047467530249101</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>71.99465393299251</v>
+        <v>77.68657168314606</v>
       </c>
       <c r="C30" t="n">
-        <v>0.605566510433952</v>
+        <v>0.5807982942142795</v>
       </c>
       <c r="D30" t="n">
-        <v>0.719946539329925</v>
+        <v>0.7768657168314606</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7041455601865462</v>
+        <v>0.7588032534087593</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.7519615221585</v>
+        <v>88.8191074317252</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3550329622502128</v>
+        <v>0.3422243423139056</v>
       </c>
       <c r="D31" t="n">
-        <v>0.867519615221585</v>
+        <v>0.8881910743172519</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8669879377153469</v>
+        <v>0.8880466177575783</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.71512152642613</v>
+        <v>62.91275876088893</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9815143636138075</v>
+        <v>0.8932469287394874</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5671512152642612</v>
+        <v>0.6291275876088892</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5414101011605603</v>
+        <v>0.6184020365083336</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.59389891231873</v>
+        <v>8.839727984202501</v>
       </c>
       <c r="C33" t="n">
-        <v>0.220412209518023</v>
+        <v>0.1884332150692385</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1059389891231873</v>
+        <v>0.08839727984202499</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1141213187052366</v>
+        <v>0.09018694384132646</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.60037716589244</v>
+        <v>46.25143816122977</v>
       </c>
       <c r="C2" t="n">
-        <v>1.534794969980915</v>
+        <v>1.140610432624817</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4360037716589244</v>
+        <v>0.4625143816122977</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3642023778410834</v>
+        <v>0.4244733784293812</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.08619451725362</v>
+        <v>49.41020251040234</v>
       </c>
       <c r="C3" t="n">
-        <v>1.331401181221008</v>
+        <v>1.198097110788027</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4408619451725361</v>
+        <v>0.4941020251040234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3587160480210941</v>
+        <v>0.431170661032735</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.89917732852361</v>
+        <v>45.56077474718639</v>
       </c>
       <c r="C4" t="n">
-        <v>1.33818588356177</v>
+        <v>1.365525339295467</v>
       </c>
       <c r="D4" t="n">
-        <v>0.448991773285236</v>
+        <v>0.4556077474718639</v>
       </c>
       <c r="E4" t="n">
-        <v>0.37751919839128</v>
+        <v>0.3911304995414562</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.68190901305375</v>
+        <v>36.23629962196905</v>
       </c>
       <c r="C5" t="n">
-        <v>1.250637438644965</v>
+        <v>1.271473793188731</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4868190901305375</v>
+        <v>0.3623629962196905</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4145536450039679</v>
+        <v>0.2947289254566771</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.82088080346715</v>
+        <v>40.77474718639435</v>
       </c>
       <c r="C6" t="n">
-        <v>1.649180164933205</v>
+        <v>1.225148713588715</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4382088080346715</v>
+        <v>0.4077474718639434</v>
       </c>
       <c r="E6" t="n">
-        <v>0.346450177311031</v>
+        <v>0.3580753363103103</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.97846002128046</v>
+        <v>38.97948944195019</v>
       </c>
       <c r="C7" t="n">
-        <v>3.619748782228513</v>
+        <v>1.469093052546183</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3997846002128046</v>
+        <v>0.3897948944195019</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3114767085542736</v>
+        <v>0.3509456608163138</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.54886287943667</v>
+        <v>57.99219716433534</v>
       </c>
       <c r="C8" t="n">
-        <v>1.369239353947342</v>
+        <v>0.9584693081744868</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4854886287943668</v>
+        <v>0.5799219716433534</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4480704599495745</v>
+        <v>0.5497302737096067</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.95345980501561</v>
+        <v>39.33935414666217</v>
       </c>
       <c r="C9" t="n">
-        <v>2.205922158667818</v>
+        <v>4.149984536568324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3995345980501561</v>
+        <v>0.3933935414666217</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3096377842308273</v>
+        <v>0.2918444785726793</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.5050043685499</v>
+        <v>42.1341015060684</v>
       </c>
       <c r="C10" t="n">
-        <v>1.618678833947828</v>
+        <v>1.407270066936811</v>
       </c>
       <c r="D10" t="n">
-        <v>0.485050043685499</v>
+        <v>0.4213410150606839</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3877506300594601</v>
+        <v>0.378432550069214</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.35670723795188</v>
+        <v>46.50195935951003</v>
       </c>
       <c r="C11" t="n">
-        <v>2.400344368753334</v>
+        <v>1.141030315558116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3535670723795189</v>
+        <v>0.4650195935951003</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2392240381949937</v>
+        <v>0.4218546907107427</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.72163254007388</v>
+        <v>42.10304587409926</v>
       </c>
       <c r="C12" t="n">
-        <v>1.617517686635256</v>
+        <v>1.264049852391084</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4072163254007387</v>
+        <v>0.4210304587409926</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3506602797350004</v>
+        <v>0.3399677451139219</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.52141454510852</v>
+        <v>49.29757177830258</v>
       </c>
       <c r="C13" t="n">
-        <v>1.523503795266151</v>
+        <v>1.200331575671832</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4552141454510852</v>
+        <v>0.4929757177830257</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4270725769454591</v>
+        <v>0.4600122455781323</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.69107864254882</v>
+        <v>40.33598906564936</v>
       </c>
       <c r="C14" t="n">
-        <v>1.801462731013695</v>
+        <v>1.962746967064838</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4869107864254881</v>
+        <v>0.4033598906564936</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4009456392544622</v>
+        <v>0.3487744881276567</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.01520774401163</v>
+        <v>42.47960622496734</v>
       </c>
       <c r="C15" t="n">
-        <v>1.345643645028273</v>
+        <v>1.242954182624817</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3801520774401163</v>
+        <v>0.4247960622496734</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2848441158696632</v>
+        <v>0.3773992641719283</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.79380444467513</v>
+        <v>37.06295037154301</v>
       </c>
       <c r="C16" t="n">
-        <v>1.545712668945392</v>
+        <v>1.592884165545305</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4379380444467513</v>
+        <v>0.3706295037154301</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3643957123310998</v>
+        <v>0.2901575313139693</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.41102431681935</v>
+        <v>43.19379925431881</v>
       </c>
       <c r="C17" t="n">
-        <v>1.466057735681534</v>
+        <v>1.400297046949466</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3441102431681935</v>
+        <v>0.4319379925431881</v>
       </c>
       <c r="E17" t="n">
-        <v>0.266704755187154</v>
+        <v>0.3827018584855943</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33.55816226783969</v>
+        <v>45.33490774141644</v>
       </c>
       <c r="C18" t="n">
-        <v>6.060277432574912</v>
+        <v>1.484580136835575</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3355816226783969</v>
+        <v>0.4533490774141645</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1803678954549801</v>
+        <v>0.357280762513648</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.13876417616069</v>
+        <v>48.31650792826927</v>
       </c>
       <c r="C19" t="n">
-        <v>2.047985215485096</v>
+        <v>1.408682118107875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4113876417616069</v>
+        <v>0.4831650792826928</v>
       </c>
       <c r="E19" t="n">
-        <v>0.315810583045214</v>
+        <v>0.4173256273089156</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>45.33049593854618</v>
+        <v>40.22292580385643</v>
       </c>
       <c r="C20" t="n">
-        <v>1.353660267343124</v>
+        <v>2.488689013927554</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4533049593854618</v>
+        <v>0.4022292580385644</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4158947921389243</v>
+        <v>0.3094908642929689</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37.18111748371525</v>
+        <v>44.41171636432841</v>
       </c>
       <c r="C21" t="n">
-        <v>2.2961857025822</v>
+        <v>1.544427864998579</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3718111748371525</v>
+        <v>0.4441171636432841</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2843115304268827</v>
+        <v>0.3554841581131031</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.23691381413335</v>
+        <v>40.14316732843709</v>
       </c>
       <c r="C22" t="n">
-        <v>1.005360424518585</v>
+        <v>1.441957281529903</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5723691381413334</v>
+        <v>0.4014316732843709</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5438716898583362</v>
+        <v>0.3457894054344923</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>39.5140961427002</v>
+        <v>35.55887161653648</v>
       </c>
       <c r="C23" t="n">
-        <v>5.566233840364536</v>
+        <v>1.367121498783429</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3951409614270019</v>
+        <v>0.3555887161653647</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2793364867722438</v>
+        <v>0.2720082659973785</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>37.03777714340089</v>
+        <v>34.28870491959273</v>
       </c>
       <c r="C24" t="n">
-        <v>1.269300772746404</v>
+        <v>1.629176067312558</v>
       </c>
       <c r="D24" t="n">
-        <v>0.370377771434009</v>
+        <v>0.3428870491959273</v>
       </c>
       <c r="E24" t="n">
-        <v>0.276481860506545</v>
+        <v>0.2507604287112228</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.65969428801287</v>
+        <v>38.62654521232882</v>
       </c>
       <c r="C25" t="n">
-        <v>2.112832162777583</v>
+        <v>1.399765802423159</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4065969428801287</v>
+        <v>0.3862654521232883</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3349601724483424</v>
+        <v>0.3119152241768245</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>44.83490341611952</v>
+        <v>45.58369882092406</v>
       </c>
       <c r="C26" t="n">
-        <v>1.121933590372403</v>
+        <v>1.233320231239001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4483490341611952</v>
+        <v>0.4558369882092405</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4269603311519095</v>
+        <v>0.4141882298948108</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>42.84993814825388</v>
+        <v>48.1122674071575</v>
       </c>
       <c r="C27" t="n">
-        <v>1.372276523212592</v>
+        <v>1.316800994674365</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4284993814825387</v>
+        <v>0.4811226740715749</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3420944145858024</v>
+        <v>0.4379672912381882</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.85332053045441</v>
+        <v>44.82841547072206</v>
       </c>
       <c r="C28" t="n">
-        <v>17.03996948068792</v>
+        <v>1.308045877019564</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3385332053045441</v>
+        <v>0.4482841547072207</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1784825417424841</v>
+        <v>0.3967578534762622</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43.64146748674297</v>
+        <v>55.67660619901557</v>
       </c>
       <c r="C29" t="n">
-        <v>1.391186194618543</v>
+        <v>1.079968107740084</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4364146748674297</v>
+        <v>0.5567660619901555</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3702792122437189</v>
+        <v>0.5092113904045226</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.49407866850059</v>
+        <v>61.70018771788683</v>
       </c>
       <c r="C30" t="n">
-        <v>1.000960618257523</v>
+        <v>1.92058139629662</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5549407866850059</v>
+        <v>0.6170018771788683</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5215149274960562</v>
+        <v>0.584248453246301</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>58.64860422668016</v>
+        <v>54.78308635887854</v>
       </c>
       <c r="C31" t="n">
-        <v>1.466958511061967</v>
+        <v>3.169605507036401</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5864860422668017</v>
+        <v>0.5478308635887854</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5254928954707488</v>
+        <v>0.4700352943444187</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43.31881763683077</v>
+        <v>44.50803784346463</v>
       </c>
       <c r="C32" t="n">
-        <v>2.424105071168679</v>
+        <v>1.559422945248056</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4331881763683077</v>
+        <v>0.4450803784346462</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3549361160074204</v>
+        <v>0.3841287612197792</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.304443628482109</v>
+        <v>6.528175975200455</v>
       </c>
       <c r="C33" t="n">
-        <v>2.951599865865576</v>
+        <v>0.6448979350217262</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06304443628482108</v>
+        <v>0.06528175975200454</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08825713140880349</v>
+        <v>0.07771449833097023</v>
       </c>
     </row>
   </sheetData>
